--- a/files/pro_data/Participants.xlsx
+++ b/files/pro_data/Participants.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\quiz_bowl\files\pro_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC795A44-633A-487A-9CD5-9AEB46D7FC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD0A96C-4D28-4AC9-81B0-7ABB5543EF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{70210B59-7979-420F-87CC-D53548C6AB02}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{70210B59-7979-420F-87CC-D53548C6AB02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="teams" sheetId="2" r:id="rId2"/>
+    <sheet name="user1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="376">
   <si>
     <t>Team Insight</t>
   </si>
@@ -881,9 +882,6 @@
     <t>UU2405000015</t>
   </si>
   <si>
-    <t>कौटिल्य</t>
-  </si>
-  <si>
     <t>Uttaranchal school of computing science</t>
   </si>
   <si>
@@ -1149,6 +1147,15 @@
   </si>
   <si>
     <t>Kautilya</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>teamId</t>
   </si>
 </sst>
 </file>
@@ -1842,8 +1849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6C39AA-CD54-44F3-8296-29CC6EA2021D}">
   <dimension ref="A1:AD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="93" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView zoomScale="93" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1873,97 +1880,97 @@
   <sheetData>
     <row r="1" spans="1:30" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="S1" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="O1" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="P1" s="18" t="s">
+      <c r="T1" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="X1" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="Q1" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="R1" s="18" t="s">
+      <c r="Y1" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="S1" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="V1" s="18" t="s">
+      <c r="Z1" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB1" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="W1" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>349</v>
-      </c>
       <c r="AC1" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AD1" s="21"/>
     </row>
     <row r="2" spans="1:30" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2031,7 +2038,7 @@
     </row>
     <row r="3" spans="1:30" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -2099,7 +2106,7 @@
     </row>
     <row r="4" spans="1:30" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>20</v>
@@ -2167,7 +2174,7 @@
     </row>
     <row r="5" spans="1:30" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
@@ -3595,7 +3602,7 @@
     </row>
     <row r="26" spans="1:30" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>201</v>
@@ -3663,7 +3670,7 @@
     </row>
     <row r="27" spans="1:30" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>206</v>
@@ -3731,7 +3738,7 @@
     </row>
     <row r="28" spans="1:30" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>215</v>
@@ -3799,7 +3806,7 @@
     </row>
     <row r="29" spans="1:30" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>216</v>
@@ -3867,7 +3874,7 @@
     </row>
     <row r="30" spans="1:30" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>30</v>
@@ -3935,7 +3942,7 @@
     </row>
     <row r="31" spans="1:30" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>229</v>
@@ -4003,7 +4010,7 @@
     </row>
     <row r="32" spans="1:30" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>235</v>
@@ -4071,7 +4078,7 @@
     </row>
     <row r="33" spans="1:30" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>243</v>
@@ -4139,7 +4146,7 @@
     </row>
     <row r="34" spans="1:30" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>250</v>
@@ -4207,7 +4214,7 @@
     </row>
     <row r="35" spans="1:30" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>257</v>
@@ -4275,7 +4282,7 @@
     </row>
     <row r="36" spans="1:30" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>266</v>
@@ -4335,7 +4342,7 @@
     </row>
     <row r="37" spans="1:30" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>275</v>
@@ -4401,12 +4408,12 @@
       <c r="AC37" s="5"/>
       <c r="AD37" s="23"/>
     </row>
-    <row r="38" spans="1:30" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>284</v>
+        <v>372</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>267</v>
@@ -4427,64 +4434,64 @@
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
       <c r="S38" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="T38" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="T38" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="U38" s="7">
         <v>7465023620</v>
       </c>
       <c r="V38" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="W38" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="W38" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="X38" s="6" t="s">
         <v>90</v>
       </c>
       <c r="Y38" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Z38" s="7">
         <v>8192930149</v>
       </c>
       <c r="AA38" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AC38" s="12" t="s">
         <v>90</v>
       </c>
       <c r="AD38" s="23"/>
     </row>
-    <row r="39" spans="1:30" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="F39" s="2">
         <v>9661085506</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>45</v>
@@ -4496,16 +4503,16 @@
         <v>24231300076</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M39" s="2">
         <v>6394095051</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>45</v>
@@ -4529,30 +4536,30 @@
       <c r="AC39" s="5"/>
       <c r="AD39" s="23"/>
     </row>
-    <row r="40" spans="1:30" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F40" s="7">
         <v>6394095051</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>45</v>
@@ -4564,16 +4571,16 @@
         <v>24231300037</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M40" s="7">
         <v>9661085506</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P40" s="6" t="s">
         <v>45</v>
@@ -4597,30 +4604,30 @@
       <c r="AC40" s="10"/>
       <c r="AD40" s="23"/>
     </row>
-    <row r="41" spans="1:30" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="F41" s="2">
         <v>9675398618</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="I41" s="2">
         <v>1</v>
@@ -4632,16 +4639,16 @@
         <v>24221100087</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M41" s="2">
         <v>7679281307</v>
       </c>
       <c r="N41" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="P41" s="2">
         <v>1</v>
@@ -4665,60 +4672,60 @@
       <c r="AC41" s="5"/>
       <c r="AD41" s="23"/>
     </row>
-    <row r="42" spans="1:30" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>313</v>
       </c>
       <c r="F42" s="7">
         <v>7838585227</v>
       </c>
       <c r="G42" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="I42" s="7">
         <v>5</v>
       </c>
       <c r="J42" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K42" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="K42" s="6" t="s">
+      <c r="L42" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="M42" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="M42" s="6" t="s">
+      <c r="N42" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N42" s="6" t="s">
-        <v>320</v>
-      </c>
       <c r="O42" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P42" s="7">
         <v>5</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
@@ -4733,60 +4740,60 @@
       <c r="AC42" s="10"/>
       <c r="AD42" s="23"/>
     </row>
-    <row r="43" spans="1:30" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>323</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>324</v>
       </c>
       <c r="F43" s="14">
         <v>9368354400</v>
       </c>
       <c r="G43" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="H43" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="I43" s="13" t="s">
         <v>326</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>327</v>
       </c>
       <c r="J43" s="13" t="s">
         <v>10</v>
       </c>
       <c r="K43" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="L43" s="13" t="s">
         <v>328</v>
-      </c>
-      <c r="L43" s="13" t="s">
-        <v>329</v>
       </c>
       <c r="M43" s="14">
         <v>7668938983</v>
       </c>
       <c r="N43" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O43" s="13" t="s">
         <v>279</v>
       </c>
       <c r="P43" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q43" s="13" t="s">
         <v>10</v>
       </c>
       <c r="R43" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S43" s="15"/>
       <c r="T43" s="15"/>
@@ -4842,8 +4849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19640B1-08AB-4DB3-AE1E-D11D026BDE76}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A41" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4856,19 +4863,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -5468,87 +5475,87 @@
     </row>
     <row r="37" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C37" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="C37" s="30" t="s">
-        <v>294</v>
-      </c>
       <c r="D37" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>299</v>
-      </c>
       <c r="C38" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>301</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C39" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="C39" s="30" t="s">
-        <v>306</v>
-      </c>
       <c r="D39" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C40" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="C40" s="29" t="s">
-        <v>314</v>
-      </c>
       <c r="D40" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B41" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C41" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="C41" s="31" t="s">
-        <v>325</v>
-      </c>
       <c r="D41" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>329</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -5570,19 +5577,973 @@
     </row>
     <row r="43" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C1B322-22D6-4C96-9565-EF41F2629F19}">
+  <dimension ref="A1:C85"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C85" sqref="A1:C85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>373</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C33">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C36">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C37">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C38">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C39">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C40">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C41">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C42">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>285</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="C43">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C72">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="C74">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="C75">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="C76">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="C77">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C79">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="C80">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="C81">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="C82">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="C83">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C84">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="B85" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>290</v>
+      <c r="C85">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
